--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,7 +1302,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -812,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="54.789887640449436"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="54.789887640449436"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-09-04T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1474669</v>
       </c>
@@ -1526,232 +2045,74 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>37967</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>IMTU1101218</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1475487</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>37967</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>IMTU1101218</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1475487</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37979</v>
@@ -1862,232 +2223,74 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>37979</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>EISU1735258</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1475549</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>37979</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>EISU1735258</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1475549</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>38054</v>
@@ -2175,7 +2378,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>38055</v>
@@ -2287,7 +2490,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>38057</v>
@@ -2399,7 +2602,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>38063</v>
@@ -2511,7 +2714,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>39703</v>
@@ -2623,7 +2826,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>39801</v>
@@ -2734,120 +2937,41 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>39801</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>TCLU6349404</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>HAPPY BEE-816E</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>2018/2774</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="0" t="n">
-        <v>1480544</v>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY SAND DUST &amp; ODOUR </t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>39854</v>
@@ -2958,120 +3082,41 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>39854</v>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>BMOU5452324</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>HAPPY BEE-816E</t>
-        </is>
-      </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t>2018/2774</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="0" t="n">
-        <v>1480678</v>
-      </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>39911</v>
@@ -3159,7 +3204,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>37745</v>
@@ -3270,120 +3315,41 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>37745</v>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>BMOU4820632</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="0" t="n">
-        <v>1474173</v>
-      </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY DUST .</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>37892</v>
@@ -3495,7 +3461,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>37893</v>
@@ -3607,7 +3573,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>37901</v>
@@ -3695,7 +3661,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>37991</v>
@@ -3783,7 +3749,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>37995</v>
@@ -3894,344 +3860,107 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>37995</v>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>LTIU6058415</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N33" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="0" t="n">
-        <v>1475683</v>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>37995</v>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>LTIU6058415</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I34" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L34" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N34" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
       <c r="O34" s="0"/>
-      <c r="P34" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="0" t="n">
-        <v>1475683</v>
-      </c>
-      <c r="W34" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>37995</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>LTIU6058415</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1475683</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>39306</v>
@@ -4343,7 +4072,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>39820</v>
@@ -4454,232 +4183,74 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>39820</v>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>EISU9206029</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>HAPPY BEE-816E</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="inlineStr">
-        <is>
-          <t>2018/2774</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
       <c r="O38" s="0"/>
-      <c r="P38" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="0" t="n">
-        <v>1480593</v>
-      </c>
-      <c r="W38" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL INK DIRTY .</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>39820</v>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>EISU9206029</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G39" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H39" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I39" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J39" s="0" t="inlineStr">
-        <is>
-          <t>HAPPY BEE-816E</t>
-        </is>
-      </c>
-      <c r="K39" s="0" t="inlineStr">
-        <is>
-          <t>2018/2774</t>
-        </is>
-      </c>
-      <c r="L39" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N39" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="0"/>
       <c r="O39" s="0"/>
-      <c r="P39" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="0" t="n">
-        <v>1480593</v>
-      </c>
-      <c r="W39" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y39" s="0" t="inlineStr">
-        <is>
           <t>F/B BADLY SAND DUST &amp; ODOUR.</t>
         </is>
       </c>
-      <c r="Z39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>39840</v>
@@ -4790,120 +4361,41 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>39840</v>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>OCGU8018190</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>HAPPY BEE-816E</t>
-        </is>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>2018/2774</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="0" t="n">
-        <v>1480651</v>
-      </c>
-      <c r="W41" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>39842</v>
@@ -5014,116 +4506,37 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>39842</v>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>EITU0311330</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="0" t="n">
-        <v>1480654</v>
-      </c>
-      <c r="W43" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
-        <is>
           <t>F/BOARD DIRTY BY DUST.</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="227.48988764044947" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="54.789887640449436"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="54.789887640449436"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -2045,70 +2045,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -2223,70 +2181,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION BADLY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2937,37 +2853,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SAND DUST &amp; ODOUR </t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SAND DUST &amp; ODOUR ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -3082,37 +2977,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -3315,37 +3189,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3860,103 +3713,40 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
-        </is>
-      </c>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION. BADLY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -4183,70 +3973,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL INK DIRTY .</t>
-        </is>
-      </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL INK DIRTY .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="0"/>
-      <c r="T39" s="0"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="0"/>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0" t="inlineStr">
-        <is>
-          <t>F/B BADLY SAND DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BADLY SAND DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -4361,37 +4109,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -4506,37 +4233,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="227.48988764044947" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -2050,9 +2050,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2062,9 +2108,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2186,9 +2278,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION BADLY.", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2198,9 +2336,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2858,9 +3042,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SAND DUST &amp; ODOUR ", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SAND DUST &amp; ODOUR </t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2982,9 +3212,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3194,9 +3470,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3718,9 +4040,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED CORROSION", "", "", ""]</t>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3730,9 +4098,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION. BADLY", "", "", ""]</t>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X34" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y34" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
+        </is>
+      </c>
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3742,9 +4156,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3978,9 +4438,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL INK DIRTY .", "", "", ""]</t>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL INK DIRTY .</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3990,9 +4496,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BADLY SAND DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X39" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y39" s="0" t="inlineStr">
+        <is>
+          <t>F/B BADLY SAND DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB39" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4114,9 +4666,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4238,9 +4836,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_43_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:24</t>
+          <t>Total number of containers:24</t>
         </is>
       </c>
     </row>
